--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/streamlit-demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D226BDD-EFAC-E94B-A44D-2F526FE9E662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048668AA-0F0B-E14D-94F3-775F4FD82309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="W12" sheetId="1" r:id="rId1"/>
     <sheet name="W13" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>101.18</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>115.07</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>91.3</v>
+        <v>89.02</v>
       </c>
       <c r="C9">
-        <v>116.05</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048668AA-0F0B-E14D-94F3-775F4FD82309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE10B4D-29F9-1644-AC53-709ADDE88514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>135.34</v>
+        <v>137.84</v>
       </c>
       <c r="C11">
-        <v>145.80000000000001</v>
+        <v>146.9</v>
       </c>
     </row>
   </sheetData>

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE10B4D-29F9-1644-AC53-709ADDE88514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE62F99-1770-184E-B6A0-97549407800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>101.18</v>
       </c>
       <c r="C2">
-        <v>115.07</v>
+        <v>113.45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>89.02</v>
       </c>
       <c r="C9">
-        <v>113.05</v>
+        <v>110.24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>137.84</v>
       </c>
       <c r="C11">
-        <v>146.9</v>
+        <v>145.63</v>
       </c>
     </row>
   </sheetData>

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE62F99-1770-184E-B6A0-97549407800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9B7F7-166B-5F4C-8FBC-B9B7DD9104B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>101.18</v>
       </c>
       <c r="C2">
-        <v>113.45</v>
+        <v>112.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89.02</v>
+        <v>90.02</v>
       </c>
       <c r="C9">
-        <v>110.24</v>
+        <v>109.53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>137.84</v>
+        <v>139.34</v>
       </c>
       <c r="C11">
-        <v>145.63</v>
+        <v>146.44</v>
       </c>
     </row>
   </sheetData>

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A9B7F7-166B-5F4C-8FBC-B9B7DD9104B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3939A3-E999-9B40-8BAF-5380E05C284F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3939A3-E999-9B40-8BAF-5380E05C284F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F12E98E-7CD1-954C-A6BB-41F08E56DD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>101.18</v>
+        <v>105.78</v>
       </c>
       <c r="C2">
-        <v>112.9</v>
+        <v>112.44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>90.02</v>
+        <v>94.1</v>
       </c>
       <c r="C9">
-        <v>109.53</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>139.34</v>
+        <v>144.63999999999999</v>
       </c>
       <c r="C11">
-        <v>146.44</v>
+        <v>147.55000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F12E98E-7CD1-954C-A6BB-41F08E56DD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDFDCAC-70B9-5E42-890C-B7E1289922BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/live-pts.xlsx
+++ b/live-pts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwyerry/programming/fantasy-playoffs-w13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDFDCAC-70B9-5E42-890C-B7E1289922BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8FC1B8-26AB-484B-BE2E-218571A601D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="460" windowWidth="15360" windowHeight="18740" xr2:uid="{40AE0D34-C8D7-B846-A940-F620CC1B2841}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>105.78</v>
+        <v>112.78</v>
       </c>
       <c r="C2">
-        <v>112.44</v>
+        <v>112.78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>94.1</v>
+        <v>104.84</v>
       </c>
       <c r="C9">
-        <v>105.3</v>
+        <v>104.84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>144.63999999999999</v>
+        <v>147.74</v>
       </c>
       <c r="C11">
-        <v>147.55000000000001</v>
+        <v>147.74</v>
       </c>
     </row>
   </sheetData>
